--- a/plots/countries/plot data/Iceland.xlsx
+++ b/plots/countries/plot data/Iceland.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0.69420584855492</v>
+        <v>0.757015855979297</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.84294632903585</v>
+        <v>0.842980424294092</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0621224481266337</v>
+        <v>0.0620948037413589</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>0.306244123663887</v>
+        <v>0.30624412330526</v>
       </c>
     </row>
     <row r="6">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>0.615720416550494</v>
+        <v>0.615733837164442</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>0.902663653435531</v>
+        <v>0.90229627572202</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>7.73197759824175</v>
+        <v>8.14226550799932</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>0.207481137339803</v>
+        <v>0.207481135349178</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>0.675177026496432</v>
+        <v>0.745324124883218</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>0.81552006493534</v>
+        <v>0.815554160097543</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0706163405868495</v>
+        <v>0.0706489082608024</v>
       </c>
     </row>
     <row r="14">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>0.231933168291085</v>
+        <v>0.231933166893473</v>
       </c>
     </row>
     <row r="15">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>0.622163456489034</v>
+        <v>0.62217656622057</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.790993149132385</v>
+        <v>0.790624993735673</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>7.7393979566318</v>
+        <v>8.14623134702549</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>0.212031863779514</v>
+        <v>0.212031861788889</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>0.653607687150657</v>
+        <v>0.732065186554761</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>0.892305216781891</v>
+        <v>0.89233931066106</v>
       </c>
     </row>
     <row r="22">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0683440992475412</v>
+        <v>0.0683228001404157</v>
       </c>
     </row>
     <row r="23">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>0.290859150742739</v>
+        <v>0.290859150737869</v>
       </c>
     </row>
     <row r="24">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>0.633533683864334</v>
+        <v>0.6335460428954</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>0.585005706813763</v>
+        <v>0.584631980580259</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>7.72941826412945</v>
+        <v>8.13185882809857</v>
       </c>
     </row>
     <row r="28">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>0.654619878444532</v>
+        <v>0.735012013578594</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>0.952076716153971</v>
+        <v>0.952110809471634</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0861153744798408</v>
+        <v>0.086124568890749</v>
       </c>
     </row>
     <row r="32">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>0.314434944032679</v>
+        <v>0.314434943663886</v>
       </c>
     </row>
     <row r="33">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>0.636669277029068</v>
+        <v>0.636681939021129</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>0.551642820424228</v>
+        <v>0.55126527903644</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>7.73869327520147</v>
+        <v>8.13817615306512</v>
       </c>
     </row>
     <row r="37">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>0.657927756345776</v>
+        <v>0.743076680806298</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>0.934232297040034</v>
+        <v>0.934266390940714</v>
       </c>
     </row>
     <row r="40">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0708683641113407</v>
+        <v>0.0708675261214574</v>
       </c>
     </row>
     <row r="41">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>0.295182636285573</v>
+        <v>0.29518263587658</v>
       </c>
     </row>
     <row r="42">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>0.638057943226643</v>
+        <v>0.638071019624797</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>0.520886136395565</v>
+        <v>0.520504741764723</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>7.72889873226237</v>
+        <v>8.12900847490774</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>0.244830726779629</v>
+        <v>0.244830718817129</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>0.637979610177871</v>
+        <v>0.725511726403034</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>1.00997169438031</v>
+        <v>1.01000578949478</v>
       </c>
     </row>
     <row r="49">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0830162215552538</v>
+        <v>0.0830274967798246</v>
       </c>
     </row>
     <row r="50">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>0.300575070208906</v>
+        <v>0.300575069141637</v>
       </c>
     </row>
     <row r="51">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>0.648722014005166</v>
+        <v>0.648734108691337</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>0.553025340212394</v>
+        <v>0.552640799415113</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>7.71497565826171</v>
+        <v>8.1106672040855</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>0.650804938364406</v>
+        <v>0.740133617631339</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>1.03397595531734</v>
+        <v>1.03401004942052</v>
       </c>
     </row>
     <row r="58">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0821390939014412</v>
+        <v>0.0821311535876819</v>
       </c>
     </row>
     <row r="59">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>0.345185414068672</v>
+        <v>0.345185414159745</v>
       </c>
     </row>
     <row r="60">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>0.639432363461517</v>
+        <v>0.639441626459361</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>0.530114105206062</v>
+        <v>0.529725461489056</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>7.70821428969248</v>
+        <v>8.10314172423678</v>
       </c>
     </row>
     <row r="64">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>0.641519534131204</v>
+        <v>0.733531806085323</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>1.02219424742445</v>
+        <v>1.02222834076448</v>
       </c>
     </row>
     <row r="67">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0677468787050104</v>
+        <v>0.0677593865033689</v>
       </c>
     </row>
     <row r="68">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>0.400018851958886</v>
+        <v>0.400018850924889</v>
       </c>
     </row>
     <row r="69">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>0.655749486323237</v>
+        <v>0.655761338918198</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>0.649012032761758</v>
+        <v>0.648616545968895</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>7.70351365279287</v>
+        <v>8.09613066698164</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>0.272268556294618</v>
+        <v>0.272268564257118</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>0.655000266082689</v>
+        <v>0.749709951730506</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>1.02056507246886</v>
+        <v>1.02059916717949</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08485449960032</v>
+        <v>0.0848518694971692</v>
       </c>
     </row>
     <row r="77">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>0.371885058683801</v>
+        <v>0.371885059984183</v>
       </c>
     </row>
     <row r="78">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>0.660006187469263</v>
+        <v>0.660016611675657</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>0.785207549075224</v>
+        <v>0.784800437712011</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>7.70496536010062</v>
+        <v>8.09120992226693</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>0.275055597735563</v>
+        <v>0.275055589773063</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>0.652031315966982</v>
+        <v>0.747985460233908</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>1.01046348155563</v>
+        <v>1.01049757538325</v>
       </c>
     </row>
     <row r="85">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>0.112810708152772</v>
+        <v>0.11279368109552</v>
       </c>
     </row>
     <row r="86">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>0.388608222640555</v>
+        <v>0.388608221398699</v>
       </c>
     </row>
     <row r="87">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0068285483385554</v>
+        <v>0.00682854833855539</v>
       </c>
     </row>
     <row r="88">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>0.684266112115462</v>
+        <v>0.684277230582412</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>0.93897683091863</v>
+        <v>0.938572995781222</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>7.7116256002137</v>
+        <v>8.09410245399462</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>0.283133851573771</v>
+        <v>0.283133843611271</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>0.637264268065833</v>
+        <v>0.732417122718138</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>0.999628928847709</v>
+        <v>0.99966302218249</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>0.154840296322565</v>
+        <v>0.154808587086568</v>
       </c>
     </row>
     <row r="95">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>0.337133191202061</v>
+        <v>0.337133191658758</v>
       </c>
     </row>
     <row r="96">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>0.687043107267743</v>
+        <v>0.687054740604343</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>0.99177428104655</v>
+        <v>0.99136802649088</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>7.72289822718751</v>
+        <v>8.095008940562</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>0.292507017974206</v>
+        <v>0.292506906499206</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>0.633737177751847</v>
+        <v>0.733874373786122</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>0.853111090175105</v>
+        <v>0.853145184440562</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>0.145485624042352</v>
+        <v>0.145488042570649</v>
       </c>
     </row>
     <row r="104">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>0.371640494988696</v>
+        <v>0.371640496067098</v>
       </c>
     </row>
     <row r="105">
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="n">
-        <v>0.00612001109581228</v>
+        <v>0.00612001109581229</v>
       </c>
     </row>
     <row r="106">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>0.697481169557547</v>
+        <v>0.697492359369834</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>0.990977935838209</v>
+        <v>0.990557471202917</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>7.7327471676669</v>
+        <v>8.09998333912083</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>0.302151344905315</v>
+        <v>0.301986998905315</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>0.617173626394154</v>
+        <v>0.718061573879087</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>0.947418939306168</v>
+        <v>0.947453033555079</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>0.149137659724407</v>
+        <v>0.149144128383584</v>
       </c>
     </row>
     <row r="113">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>0.380844151907818</v>
+        <v>0.380844152696549</v>
       </c>
     </row>
     <row r="114">
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>0.00700374660408715</v>
+        <v>0.00700497889578107</v>
       </c>
     </row>
     <row r="115">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>0.699346741133789</v>
+        <v>0.699358723048162</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>0.978942405607587</v>
+        <v>0.978499060128932</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>7.75045590259112</v>
+        <v>8.10929757451464</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>0.306705300573902</v>
+        <v>0.306637643211402</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>0.609409062145511</v>
+        <v>0.711192067262383</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>0.887210304342386</v>
+        <v>0.887244398804005</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>0.138017430297278</v>
+        <v>0.138048809972172</v>
       </c>
     </row>
     <row r="122">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>0.350570100423501</v>
+        <v>0.350570100042158</v>
       </c>
     </row>
     <row r="123">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>0.00513745563436121</v>
+        <v>0.00513852820940307</v>
       </c>
     </row>
     <row r="124">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>0.791735557426884</v>
+        <v>0.79175513966612</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>0.966737440619928</v>
+        <v>0.966293001125528</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>7.74677737786424</v>
+        <v>8.09986286722491</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>0.307817846725074</v>
+        <v>0.307815999425074</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>0.601385007892403</v>
+        <v>0.707562967221242</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>0.943026978695667</v>
+        <v>0.943061073084306</v>
       </c>
     </row>
     <row r="130">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>0.12472407984383</v>
+        <v>0.124703233493101</v>
       </c>
     </row>
     <row r="131">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>0.351150011378685</v>
+        <v>0.35115001125072</v>
       </c>
     </row>
     <row r="132">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0032979211364521</v>
+        <v>0.00329870988539117</v>
       </c>
     </row>
     <row r="133">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>0.849355310816735</v>
+        <v>0.849381581450427</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>0.974793268648424</v>
+        <v>0.974336631669296</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>7.74620112543594</v>
+        <v>8.09653476776047</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>0.31682976324616</v>
+        <v>0.31682840962116</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>0.603844057287216</v>
+        <v>0.710908155275071</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>0.871645236225165</v>
+        <v>0.871679330593582</v>
       </c>
     </row>
     <row r="139">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>0.120107020539459</v>
+        <v>0.120072774284298</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>0.30641077773659</v>
+        <v>0.306410777851826</v>
       </c>
     </row>
     <row r="141">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>0.00339540751506448</v>
+        <v>0.00339687207330669</v>
       </c>
     </row>
     <row r="142">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>0.856915743796774</v>
+        <v>0.856948214417904</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>0.950493051496511</v>
+        <v>0.949983267027971</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>7.74597624402587</v>
+        <v>8.09172672695097</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>0.30953893147493</v>
+        <v>0.30945508634993</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>0.62987706901244</v>
+        <v>0.737975828157411</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>0.790095531389989</v>
+        <v>0.790129625699125</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>0.130133094264024</v>
+        <v>0.130133794758349</v>
       </c>
     </row>
     <row r="149">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>0.298927961915011</v>
+        <v>0.298927962430692</v>
       </c>
     </row>
     <row r="150">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>0.00928875648112042</v>
+        <v>0.00928909843491288</v>
       </c>
     </row>
     <row r="151">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>0.993266990581488</v>
+        <v>0.99331198025789</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>1.39439369741342</v>
+        <v>1.39387915779679</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>7.79853721272168</v>
+        <v>8.13517014289282</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>0.333135269845702</v>
+        <v>0.333075837745702</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>0.646681580518693</v>
+        <v>0.75488636771604</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>0.863648748910966</v>
+        <v>0.86368284326777</v>
       </c>
     </row>
     <row r="157">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>0.150835747855847</v>
+        <v>0.150839112877736</v>
       </c>
     </row>
     <row r="158">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>0.294193931462078</v>
+        <v>0.294193931899185</v>
       </c>
     </row>
     <row r="159">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0252666435378358</v>
+        <v>0.0252666457081407</v>
       </c>
     </row>
     <row r="160">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>1.02905606221332</v>
+        <v>1.02910565976238</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>1.53847499810049</v>
+        <v>1.53799096075503</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>7.70027479711254</v>
+        <v>8.03045182095472</v>
       </c>
     </row>
     <row r="163">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>0.66314525544876</v>
+        <v>0.770580067803241</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>0.794291111040047</v>
+        <v>0.794325205392935</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>0.189434177299424</v>
+        <v>0.189439277689864</v>
       </c>
     </row>
     <row r="167">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>0.266216150393326</v>
+        <v>0.266216151666432</v>
       </c>
     </row>
     <row r="168">
@@ -3825,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0104039798326097</v>
+        <v>0.0104040597680817</v>
       </c>
     </row>
     <row r="169">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>0.974538516443924</v>
+        <v>0.974593307877726</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>2.04992051836948</v>
+        <v>2.04942315699429</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>7.74191161954785</v>
+        <v>8.06566707434162</v>
       </c>
     </row>
     <row r="172">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>0.653492990009443</v>
+        <v>0.759489730450678</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>0.827298592278455</v>
+        <v>0.827332686365774</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>0.173302777959013</v>
+        <v>0.173287029087158</v>
       </c>
     </row>
     <row r="176">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>0.189457014263255</v>
+        <v>0.189457013640191</v>
       </c>
     </row>
     <row r="177">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>0.00793623851315955</v>
+        <v>0.00793648319254324</v>
       </c>
     </row>
     <row r="178">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>0.93900805457821</v>
+        <v>0.939069116417639</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>1.86699493299587</v>
+        <v>1.86564143187022</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>7.78576016982034</v>
+        <v>8.11736939363463</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>0.309245948844714</v>
+        <v>0.309208365844714</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>0.639630383931966</v>
+        <v>0.748535542413542</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>0.78991256445626</v>
+        <v>0.789946658668077</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>0.19531761662101</v>
+        <v>0.195345143733034</v>
       </c>
     </row>
     <row r="185">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>0.142057333260602</v>
+        <v>0.142057333691448</v>
       </c>
     </row>
     <row r="186">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>0.890856864649666</v>
+        <v>0.890910703023337</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>1.89560472902425</v>
+        <v>1.89505299254376</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>7.76734875404913</v>
+        <v>8.0881843252998</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>0.305675954475286</v>
+        <v>0.305675962437786</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>0.63768760033879</v>
+        <v>0.745944295140683</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>0.707483670067385</v>
+        <v>0.707517764190515</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>0.184003894506279</v>
+        <v>0.184003134056538</v>
       </c>
     </row>
     <row r="194">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>0.148197295255506</v>
+        <v>0.148197294718407</v>
       </c>
     </row>
     <row r="195">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>0.858791185016206</v>
+        <v>0.858852064018607</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>1.82594852662117</v>
+        <v>1.8253590858578</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>7.74726252345806</v>
+        <v>8.06348332010272</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>0.286539525411167</v>
+        <v>0.286333801676818</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>0.632566633944742</v>
+        <v>0.73848503273202</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>0.696155379140565</v>
+        <v>0.696189473304276</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>0.175719425699399</v>
+        <v>0.175716906989364</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>0.136061483135808</v>
+        <v>0.136061483944589</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>0.00784603532636769</v>
+        <v>0.00784603532636768</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>0.840104086189922</v>
+        <v>0.84010273681052</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>1.89410796359724</v>
+        <v>1.89359743867878</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>7.75327729805352</v>
+        <v>8.06453924257459</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>0.266225950988047</v>
+        <v>0.266026899807675</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>0.616940866803305</v>
+        <v>0.729749061717354</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>0.658609554848824</v>
+        <v>0.658643648987274</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>0.177606234775751</v>
+        <v>0.177614358983555</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>0.125155722764446</v>
+        <v>0.125155723177592</v>
       </c>
     </row>
     <row r="213">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>0.854741496006983</v>
+        <v>0.854748396129228</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>1.94247604636019</v>
+        <v>1.94194441686253</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>7.7537915214429</v>
+        <v>8.06177690538433</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>0.265529356367327</v>
+        <v>0.265343087243969</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>0.66109304047723</v>
+        <v>0.770644743392991</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>0.662848004250194</v>
+        <v>0.662882098384404</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>0.18804288874788</v>
+        <v>0.188050647487138</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0917460852193011</v>
+        <v>0.0917460850686479</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>0.00511982397020806</v>
+        <v>0.00511982397020805</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>0.861153023577717</v>
+        <v>0.861175933855754</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>1.91711424850984</v>
+        <v>1.91658234183059</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>7.74801292031727</v>
+        <v>8.05168164266059</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>0.265573402783039</v>
+        <v>0.265432262197872</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>0.650330985070622</v>
+        <v>0.76154586799883</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>0.669683307518108</v>
+        <v>0.669717401860229</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>0.168237769269035</v>
+        <v>0.168219810284179</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>0.120921416166079</v>
+        <v>0.12092141554731</v>
       </c>
     </row>
     <row r="231">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>0.890716163802547</v>
+        <v>0.890696515283846</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>1.96573934595185</v>
+        <v>1.96518426851325</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>7.73921595320606</v>
+        <v>8.03939710266243</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>0.264573365796007</v>
+        <v>0.264357185507764</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>0.650243519230796</v>
+        <v>0.760540843370675</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>0.573347073609692</v>
+        <v>0.573381167827514</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>0.152912958867697</v>
+        <v>0.152888430301744</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>0.128969100113101</v>
+        <v>0.128969099184671</v>
       </c>
     </row>
     <row r="240">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>0.971411366433629</v>
+        <v>0.971340400590187</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>1.9477582882024</v>
+        <v>1.94719984639289</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>7.72032729378445</v>
+        <v>8.01837866684493</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>0.260827772662308</v>
+        <v>0.26049570988862</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>0.651078843766554</v>
+        <v>0.762918939400852</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>0.590082627207142</v>
+        <v>0.590116721636909</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>0.150183717579508</v>
+        <v>0.150212520898196</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>0.10191970910493</v>
+        <v>0.101919709194876</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>0.00231803690618232</v>
+        <v>0.00231803690618231</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>1.02573903956577</v>
+        <v>1.02558011890216</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>1.99409358723165</v>
+        <v>1.99352047754399</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>7.69312658646591</v>
+        <v>7.98758155746686</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>0.25841364763953</v>
+        <v>0.257998189936739</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>0.62829735478721</v>
+        <v>0.741549435860554</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>0.59375632919318</v>
+        <v>0.593790423406574</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>0.160174950493946</v>
+        <v>0.160160439678545</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>0.0941280668790645</v>
+        <v>0.0941280660814636</v>
       </c>
     </row>
     <row r="258">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>1.0607506564738</v>
+        <v>1.0605621834644</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>2.03522794345174</v>
+        <v>2.0346534605923</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>7.68025194437164</v>
+        <v>7.97205937700621</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>0.253715511285453</v>
+        <v>0.256583867221764</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>0.610905619802498</v>
+        <v>0.725682942668861</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>0.547161635548931</v>
+        <v>0.547161635469077</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>0.167344556127456</v>
+        <v>0.16737895821871</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>0.0716222208418152</v>
+        <v>0.0716222217068434</v>
       </c>
     </row>
     <row r="267">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>1.06289442820824</v>
+        <v>1.06258065594854</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>2.00207251614281</v>
+        <v>1.98662002468751</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>7.69336610363776</v>
+        <v>7.98244088009763</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>0.222023693457055</v>
+        <v>0.230545397181472</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>0.60948364614887</v>
+        <v>0.72326851971441</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>0.544723568266292</v>
+        <v>0.544723568280565</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>0.17968937941609</v>
+        <v>0.179672451140516</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0544625967057927</v>
+        <v>0.0544625958375011</v>
       </c>
     </row>
     <row r="276">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>0.883125935276465</v>
+        <v>0.882831810102994</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>1.97726933883935</v>
+        <v>1.95817339718848</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>7.70169776548096</v>
+        <v>7.99992509765955</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>0.244093095790303</v>
+        <v>0.259360763443046</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>0.61274653429161</v>
+        <v>0.726359419463729</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>0.601538335244394</v>
+        <v>0.601542247118558</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>0.180250877073519</v>
+        <v>0.166974066599399</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>0.0779185057837972</v>
+        <v>0.077920215441244</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>0.00320547303443944</v>
+        <v>0.00320547838258777</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>0.901131059707378</v>
+        <v>0.900727589739965</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>2.01192137148232</v>
+        <v>1.99573721923813</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>7.69903685743706</v>
+        <v>8.00338469293245</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>0.24267746631187</v>
+        <v>0.256694769795305</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>0.596263814485602</v>
+        <v>0.711971579043667</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>0.511018464255874</v>
+        <v>0.510025906339646</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>0.191043509621375</v>
+        <v>0.178877121870299</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>0.131081922057226</v>
+        <v>0.131627010611765</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0105079834106457</v>
+        <v>0.0104860226789979</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>0.975690448548502</v>
+        <v>0.976031628119569</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>2.01679607083976</v>
+        <v>2.01616362628278</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>7.75702015023553</v>
+        <v>7.985699087726</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>0.233598689255864</v>
+        <v>0.246533745734654</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.692380402462033</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.515612297774997</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.177462696793639</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.109744602165158</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.0109557765165949</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.960720032386061</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1.94599627542462</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>7.9850110491167</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.233174587253754</v>
       </c>
     </row>
   </sheetData>
